--- a/example_data/EMA/label_corrected/amgevita-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/amgevita-epar-product-information_en.xlsx
@@ -2805,7 +2805,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - adult || populations - pediatric || warnings</t>
+          <t>populations - adolescent || populations - adult || warnings || populations - pediatric</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I449" t="inlineStr"/>
